--- a/instruction_matrix_ref.xlsx
+++ b/instruction_matrix_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haruk\Projects\nesEmu\myNESEmu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75E3AD6-EC80-4062-B2DF-DE313A7F9D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194FA44C-683A-4FC6-8638-0B2BA746CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19770" windowHeight="13875" firstSheet="1" activeTab="4" xr2:uid="{EA7F8F21-DE70-47D7-820D-69DB24D0CDF7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19770" windowHeight="13875" firstSheet="1" activeTab="8" xr2:uid="{EA7F8F21-DE70-47D7-820D-69DB24D0CDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7157" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7435" uniqueCount="1053">
   <si>
     <t>ADC();</t>
   </si>
@@ -3102,6 +3102,108 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>&amp;CPU::IMP,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::IZX,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::ZP0,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::IMM,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::ABS,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::REL,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::IZY,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::ZPX,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::ABY,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::ABX,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::IND,</t>
+  </si>
+  <si>
+    <t>&amp;CPU::ZPY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte NOP(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte STP(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte SLO(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte RLA(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte SRE(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte RRA(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte SAX(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte AHX(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte LAX(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte DCP(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte ISC(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte ANC(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte ALR(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte ARR(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte XAA(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte TAS(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte LAS(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte AXS(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte SBC(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte SHY(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte SHX(); </t>
+  </si>
+  <si>
+    <t>Unofficial opcodes:</t>
   </si>
 </sst>
 </file>
@@ -3313,7 +3415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3363,24 +3465,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3412,15 +3496,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -13776,813 +13898,813 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="34" t="s">
+      <c r="B1" t="s">
         <v>1011</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" t="s">
         <v>1012</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" t="s">
         <v>1013</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" t="s">
         <v>1014</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" t="s">
         <v>1014</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" t="s">
         <v>1015</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" t="s">
         <v>1015</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" t="s">
         <v>1014</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" t="s">
         <v>1016</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" t="s">
         <v>1016</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" t="s">
         <v>1016</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" t="s">
         <v>1017</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" t="s">
         <v>1017</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" t="s">
         <v>1012</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="34" t="s">
+      <c r="B2" t="s">
         <v>1016</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" t="s">
         <v>1015</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" t="s">
         <v>1013</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" t="s">
         <v>1017</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" t="s">
         <v>1017</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" t="s">
         <v>1012</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" t="s">
         <v>1012</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" t="s">
         <v>1016</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" t="s">
         <v>1017</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" t="s">
         <v>1016</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" t="s">
         <v>1011</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" t="s">
         <v>1017</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" t="s">
         <v>1017</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" t="s">
         <v>1011</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="34" t="s">
+      <c r="B3" t="s">
         <v>1012</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" t="s">
         <v>1012</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" t="s">
         <v>1013</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" t="s">
         <v>1014</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" t="s">
         <v>1014</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" t="s">
         <v>1015</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" t="s">
         <v>1015</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" t="s">
         <v>1017</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" t="s">
         <v>1016</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" t="s">
         <v>1016</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" t="s">
         <v>1016</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" t="s">
         <v>1017</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" t="s">
         <v>1017</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" t="s">
         <v>1012</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="34" t="s">
+      <c r="B4" t="s">
         <v>1016</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" t="s">
         <v>1015</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" t="s">
         <v>1013</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" t="s">
         <v>1017</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" t="s">
         <v>1017</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" t="s">
         <v>1012</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" t="s">
         <v>1012</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" t="s">
         <v>1016</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" t="s">
         <v>1017</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" t="s">
         <v>1016</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" t="s">
         <v>1011</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" t="s">
         <v>1017</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" t="s">
         <v>1017</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" t="s">
         <v>1011</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="34" t="s">
+      <c r="B5" t="s">
         <v>1012</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" t="s">
         <v>1012</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" t="s">
         <v>1013</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" t="s">
         <v>1014</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" t="s">
         <v>1014</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" t="s">
         <v>1015</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" t="s">
         <v>1015</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" t="s">
         <v>1014</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" t="s">
         <v>1016</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" t="s">
         <v>1016</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" t="s">
         <v>1016</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" t="s">
         <v>1014</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" t="s">
         <v>1017</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" t="s">
         <v>1012</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="34" t="s">
+      <c r="B6" t="s">
         <v>1016</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" t="s">
         <v>1015</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" t="s">
         <v>1013</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" t="s">
         <v>1017</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" t="s">
         <v>1017</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" t="s">
         <v>1012</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" t="s">
         <v>1012</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" t="s">
         <v>1016</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" t="s">
         <v>1017</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" t="s">
         <v>1016</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" t="s">
         <v>1011</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" t="s">
         <v>1017</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" t="s">
         <v>1017</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" t="s">
         <v>1011</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="34" t="s">
+      <c r="B7" t="s">
         <v>1012</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" t="s">
         <v>1012</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" t="s">
         <v>1013</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" t="s">
         <v>1014</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" t="s">
         <v>1014</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" t="s">
         <v>1015</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" t="s">
         <v>1015</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" t="s">
         <v>1017</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" t="s">
         <v>1016</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" t="s">
         <v>1016</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" t="s">
         <v>1016</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" t="s">
         <v>1015</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" t="s">
         <v>1017</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" t="s">
         <v>1012</v>
       </c>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="34" t="s">
+      <c r="B8" t="s">
         <v>1016</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" t="s">
         <v>1015</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" t="s">
         <v>1013</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" t="s">
         <v>1017</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" t="s">
         <v>1017</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" t="s">
         <v>1012</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" t="s">
         <v>1012</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" t="s">
         <v>1016</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" t="s">
         <v>1017</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" t="s">
         <v>1016</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" t="s">
         <v>1011</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" t="s">
         <v>1017</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" t="s">
         <v>1017</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" t="s">
         <v>1011</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="34" t="s">
+      <c r="B9" t="s">
         <v>1016</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" t="s">
         <v>1012</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" t="s">
         <v>1016</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" t="s">
         <v>1012</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" t="s">
         <v>1014</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" t="s">
         <v>1014</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" t="s">
         <v>1014</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" t="s">
         <v>1014</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" t="s">
         <v>1016</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" t="s">
         <v>1016</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" t="s">
         <v>1016</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" t="s">
         <v>1016</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" t="s">
         <v>1017</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" t="s">
         <v>1017</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="P9" t="s">
         <v>1017</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="34" t="s">
+      <c r="B10" t="s">
         <v>1016</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" t="s">
         <v>1012</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" t="s">
         <v>1012</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" t="s">
         <v>1017</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" t="s">
         <v>1017</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" t="s">
         <v>1017</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" t="s">
         <v>1017</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" t="s">
         <v>1016</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" t="s">
         <v>1015</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" t="s">
         <v>1016</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" t="s">
         <v>1015</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" t="s">
         <v>1015</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" t="s">
         <v>1015</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" t="s">
         <v>1015</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="34" t="s">
+      <c r="B11" t="s">
         <v>1016</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" t="s">
         <v>1012</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" t="s">
         <v>1016</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" t="s">
         <v>1012</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" t="s">
         <v>1014</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" t="s">
         <v>1014</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" t="s">
         <v>1014</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" t="s">
         <v>1014</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" t="s">
         <v>1016</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" t="s">
         <v>1016</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" t="s">
         <v>1016</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" t="s">
         <v>1016</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" t="s">
         <v>1017</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" t="s">
         <v>1017</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" t="s">
         <v>1017</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="34" t="s">
+      <c r="B12" t="s">
         <v>1016</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" t="s">
         <v>1015</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" t="s">
         <v>1015</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" t="s">
         <v>1017</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" t="s">
         <v>1017</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" t="s">
         <v>1017</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" t="s">
         <v>1017</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" t="s">
         <v>1016</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" t="s">
         <v>1017</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" t="s">
         <v>1016</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" t="s">
         <v>1017</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" t="s">
         <v>1017</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" t="s">
         <v>1017</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" t="s">
         <v>1017</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="34" t="s">
+      <c r="B13" t="s">
         <v>1016</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" t="s">
         <v>1012</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" t="s">
         <v>1016</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" t="s">
         <v>1013</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" t="s">
         <v>1014</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" t="s">
         <v>1014</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" t="s">
         <v>1015</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" t="s">
         <v>1015</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" t="s">
         <v>1016</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" t="s">
         <v>1016</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" t="s">
         <v>1016</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" t="s">
         <v>1016</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" t="s">
         <v>1017</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="O13" t="s">
         <v>1017</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" t="s">
         <v>1012</v>
       </c>
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="34" t="s">
+      <c r="B14" t="s">
         <v>1016</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" t="s">
         <v>1015</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" t="s">
         <v>1013</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" t="s">
         <v>1017</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" t="s">
         <v>1017</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" t="s">
         <v>1012</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" t="s">
         <v>1012</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" t="s">
         <v>1016</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" t="s">
         <v>1017</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" t="s">
         <v>1016</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" t="s">
         <v>1011</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" t="s">
         <v>1017</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" t="s">
         <v>1017</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" t="s">
         <v>1011</v>
       </c>
-      <c r="Q14" s="34" t="s">
+      <c r="Q14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="34" t="s">
+      <c r="B15" t="s">
         <v>1016</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" t="s">
         <v>1012</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" t="s">
         <v>1016</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" t="s">
         <v>1013</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" t="s">
         <v>1014</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" t="s">
         <v>1014</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" t="s">
         <v>1015</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" t="s">
         <v>1015</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" t="s">
         <v>1016</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" t="s">
         <v>1016</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" t="s">
         <v>1016</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" t="s">
         <v>1016</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" t="s">
         <v>1017</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" t="s">
         <v>1017</v>
       </c>
-      <c r="P15" s="34" t="s">
+      <c r="P15" t="s">
         <v>1012</v>
       </c>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="34" t="s">
+      <c r="B16" t="s">
         <v>1016</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" t="s">
         <v>1015</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" t="s">
         <v>1013</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" t="s">
         <v>1017</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" t="s">
         <v>1017</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" t="s">
         <v>1012</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" t="s">
         <v>1012</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" t="s">
         <v>1016</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" t="s">
         <v>1017</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" t="s">
         <v>1016</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" t="s">
         <v>1011</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" t="s">
         <v>1017</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="O16" t="s">
         <v>1017</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" t="s">
         <v>1011</v>
       </c>
-      <c r="Q16" s="34" t="s">
+      <c r="Q16" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="35">
+      <c r="A18" s="28">
         <v>0</v>
       </c>
       <c r="B18" t="str">
@@ -14651,7 +14773,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="35">
+      <c r="A19" s="28">
         <v>1</v>
       </c>
       <c r="B19" t="str">
@@ -14720,7 +14842,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="35">
+      <c r="A20" s="28">
         <v>2</v>
       </c>
       <c r="B20" t="str">
@@ -14789,7 +14911,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="35">
+      <c r="A21" s="28">
         <v>3</v>
       </c>
       <c r="B21" t="str">
@@ -14858,7 +14980,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="35">
+      <c r="A22" s="28">
         <v>4</v>
       </c>
       <c r="B22" t="str">
@@ -14927,7 +15049,7 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="35">
+      <c r="A23" s="28">
         <v>5</v>
       </c>
       <c r="B23" t="str">
@@ -14996,7 +15118,7 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="35">
+      <c r="A24" s="28">
         <v>6</v>
       </c>
       <c r="B24" t="str">
@@ -15065,7 +15187,7 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="35">
+      <c r="A25" s="28">
         <v>7</v>
       </c>
       <c r="B25" t="str">
@@ -15134,7 +15256,7 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="35">
+      <c r="A26" s="28">
         <v>8</v>
       </c>
       <c r="B26" t="str">
@@ -15203,7 +15325,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="35">
+      <c r="A27" s="28">
         <v>9</v>
       </c>
       <c r="B27" t="str">
@@ -15272,7 +15394,7 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="35">
+      <c r="A28" s="28">
         <v>10</v>
       </c>
       <c r="B28" t="str">
@@ -15341,7 +15463,7 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="35">
+      <c r="A29" s="28">
         <v>11</v>
       </c>
       <c r="B29" t="str">
@@ -15410,7 +15532,7 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="35">
+      <c r="A30" s="28">
         <v>12</v>
       </c>
       <c r="B30" t="str">
@@ -15479,7 +15601,7 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="35">
+      <c r="A31" s="28">
         <v>13</v>
       </c>
       <c r="B31" t="str">
@@ -15548,7 +15670,7 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="35">
+      <c r="A32" s="28">
         <v>14</v>
       </c>
       <c r="B32" t="str">
@@ -15617,7 +15739,7 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="35">
+      <c r="A33" s="28">
         <v>15</v>
       </c>
       <c r="B33" t="str">
@@ -31216,7 +31338,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="32.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>710</v>
@@ -31240,10 +31362,10 @@
       <c r="J2" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="32" t="s">
         <v>732</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="32" t="s">
         <v>733</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -31252,7 +31374,7 @@
       <c r="N2" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="32" t="s">
         <v>740</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -31263,7 +31385,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18"/>
+      <c r="A3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>711</v>
       </c>
@@ -31286,15 +31408,15 @@
       <c r="J3" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="3" t="s">
         <v>735</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="O3" s="21"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="3" t="s">
         <v>742</v>
       </c>
@@ -31303,7 +31425,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="18"/>
+      <c r="A4" s="30"/>
       <c r="C4" s="4" t="s">
         <v>706</v>
       </c>
@@ -31318,18 +31440,18 @@
       <c r="J4" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="4"/>
       <c r="N4" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="32.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="3" t="s">
         <v>709</v>
       </c>
@@ -31345,18 +31467,18 @@
       <c r="J5" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="4"/>
       <c r="N5" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="18"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>708</v>
@@ -31370,16 +31492,16 @@
       <c r="J6" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="21"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="18"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -31391,16 +31513,16 @@
       <c r="J7" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="18"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -31412,16 +31534,16 @@
       <c r="J8" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="18"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -31433,16 +31555,16 @@
       <c r="J9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="21.4" thickBot="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -31454,11 +31576,11 @@
       <c r="J10" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="22"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
@@ -31880,7 +32002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4E1CDD-340A-4D23-A398-7D627919B242}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -31937,855 +32059,855 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="23">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="17">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="21" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="23">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="21" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="23">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="21" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="23">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>774</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="18" t="s">
         <v>775</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="21" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>776</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="21" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="23">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="21" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="23">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="21" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="23">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="21" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="21" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="23">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="20" t="s">
         <v>803</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="21" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="23">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="18" t="s">
         <v>806</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="21" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="23">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="P13" s="29" t="s">
+      <c r="P13" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="21" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="23">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="21" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="23">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="18" t="s">
         <v>819</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="N15" s="28" t="s">
+      <c r="N15" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="P15" s="29" t="s">
+      <c r="P15" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="21" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="23">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="21" t="s">
         <v>822</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="21" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="23">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="P17" s="29" t="s">
+      <c r="P17" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="21" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="31">
+      <c r="A20" s="25">
         <v>0</v>
       </c>
       <c r="C20" t="s">
@@ -32826,7 +32948,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="31">
+      <c r="A21" s="25">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -32870,7 +32992,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="32">
+      <c r="A22" s="26">
         <v>2</v>
       </c>
       <c r="B22" t="s">
@@ -32914,7 +33036,7 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="31">
+      <c r="A23" s="25">
         <v>3</v>
       </c>
       <c r="B23" t="s">
@@ -32958,7 +33080,7 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="31">
+      <c r="A24" s="25">
         <v>4</v>
       </c>
       <c r="C24" t="s">
@@ -32999,7 +33121,7 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="32">
+      <c r="A25" s="26">
         <v>5</v>
       </c>
       <c r="B25" t="s">
@@ -33043,7 +33165,7 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="31">
+      <c r="A26" s="25">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -33084,7 +33206,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="31">
+      <c r="A27" s="25">
         <v>7</v>
       </c>
       <c r="B27" t="s">
@@ -33128,7 +33250,7 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="32">
+      <c r="A28" s="26">
         <v>8</v>
       </c>
       <c r="B28" t="s">
@@ -33175,7 +33297,7 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="31">
+      <c r="A29" s="25">
         <v>9</v>
       </c>
       <c r="B29" t="s">
@@ -33219,7 +33341,7 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="31">
+      <c r="A30" s="25">
         <v>10</v>
       </c>
       <c r="B30" t="s">
@@ -33266,7 +33388,7 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="32">
+      <c r="A31" s="26">
         <v>11</v>
       </c>
       <c r="B31" t="s">
@@ -33310,7 +33432,7 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="31">
+      <c r="A32" s="25">
         <v>12</v>
       </c>
       <c r="B32" t="s">
@@ -33357,7 +33479,7 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="31">
+      <c r="A33" s="25">
         <v>13</v>
       </c>
       <c r="B33" t="s">
@@ -33401,7 +33523,7 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="32">
+      <c r="A34" s="26">
         <v>14</v>
       </c>
       <c r="B34" t="s">
@@ -33448,7 +33570,7 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="31">
+      <c r="A35" s="25">
         <v>15</v>
       </c>
       <c r="B35" t="s">
@@ -36471,10 +36593,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2239497F-2494-4A8D-ABE7-93AD86E95A51}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -37277,6 +37399,1110 @@
       </c>
       <c r="P16" t="s">
         <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT(MID(A1,2,5),",")</f>
+        <v>"BRK",</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:P18" si="0">_xlfn.CONCAT(MID(B1,2,5),",")</f>
+        <v>"ORA",</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>"SLO",</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>"ORA",</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>"ASL",</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>"SLO",</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>"PHP",</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>"ORA",</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>"ASL",</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>"ANC",</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>"ORA",</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>"ASL",</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>"SLO",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="str">
+        <f t="shared" ref="A19:P19" si="1">_xlfn.CONCAT(MID(A2,2,5),",")</f>
+        <v>"BPL",</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>"ORA",</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLO",</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>"ORA",</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>"ASL",</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLO",</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>"CLC",</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>"ORA",</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLO",</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>"ORA",</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>"ASL",</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLO",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="str">
+        <f t="shared" ref="A20:P20" si="2">_xlfn.CONCAT(MID(A3,2,5),",")</f>
+        <v>"JSR",</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>"AND",</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>"RLA",</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>"BIT",</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>"AND",</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>"ROL",</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>"RLA",</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>"PLP",</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>"AND",</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>"ROL",</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>"ANC",</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>"BIT",</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>"AND",</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
+        <v>"ROL",</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="2"/>
+        <v>"RLA",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="str">
+        <f t="shared" ref="A21:P21" si="3">_xlfn.CONCAT(MID(A4,2,5),",")</f>
+        <v>"BMI",</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="3"/>
+        <v>"AND",</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="3"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v>"RLA",</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>"AND",</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>"ROL",</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>"RLA",</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>"SEC",</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>"AND",</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>"RLA",</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>"AND",</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v>"ROL",</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v>"RLA",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="str">
+        <f t="shared" ref="A22:P22" si="4">_xlfn.CONCAT(MID(A5,2,5),",")</f>
+        <v>"RTI",</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="4"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="4"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="4"/>
+        <v>"SRE",</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="4"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="4"/>
+        <v>"LSR",</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="4"/>
+        <v>"SRE",</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>"PHA",</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>"LSR",</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>"ALR",</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>"JMP",</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="4"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="4"/>
+        <v>"LSR",</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="4"/>
+        <v>"SRE",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:P23" si="5">_xlfn.CONCAT(MID(A6,2,5),",")</f>
+        <v>"BVC",</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="5"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="5"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="5"/>
+        <v>"SRE",</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="5"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="5"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="5"/>
+        <v>"LSR",</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>"SRE",</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="5"/>
+        <v>"CLI",</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>"SRE",</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="5"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="5"/>
+        <v>"EOR",</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="5"/>
+        <v>"LSR",</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>"SRE",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="str">
+        <f t="shared" ref="A24:P24" si="6">_xlfn.CONCAT(MID(A7,2,5),",")</f>
+        <v>"RTS",</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="6"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="6"/>
+        <v>"RRA",</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="6"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ROR",</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="6"/>
+        <v>"RRA",</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="6"/>
+        <v>"PLA",</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ROR",</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ARR",</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="6"/>
+        <v>"JMP",</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>"ROR",</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="6"/>
+        <v>"RRA",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="str">
+        <f t="shared" ref="A25:P25" si="7">_xlfn.CONCAT(MID(A8,2,5),",")</f>
+        <v>"BVS",</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="7"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="7"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="7"/>
+        <v>"RRA",</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="7"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="7"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="7"/>
+        <v>"ROR",</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="7"/>
+        <v>"RRA",</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="7"/>
+        <v>"SEI",</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="7"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="7"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="7"/>
+        <v>"RRA",</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="7"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="7"/>
+        <v>"ADC",</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="7"/>
+        <v>"ROR",</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>"RRA",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="str">
+        <f t="shared" ref="A26:P26" si="8">_xlfn.CONCAT(MID(A9,2,5),",")</f>
+        <v>"NOP",</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="8"/>
+        <v>"STA",</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="8"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="8"/>
+        <v>"SAX",</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="8"/>
+        <v>"STY",</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="8"/>
+        <v>"STA",</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="8"/>
+        <v>"STX",</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="8"/>
+        <v>"SAX",</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="8"/>
+        <v>"DEY",</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="8"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="8"/>
+        <v>"TXA",</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="8"/>
+        <v>"XAA",</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="8"/>
+        <v>"STY",</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="8"/>
+        <v>"STA",</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="8"/>
+        <v>"STX",</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="8"/>
+        <v>"SAX",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="str">
+        <f t="shared" ref="A27:P27" si="9">_xlfn.CONCAT(MID(A10,2,5),",")</f>
+        <v>"BCC",</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="9"/>
+        <v>"STA",</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="9"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="9"/>
+        <v>"AHX",</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="9"/>
+        <v>"STY",</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="9"/>
+        <v>"STA",</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="9"/>
+        <v>"STX",</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="9"/>
+        <v>"SAX",</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="9"/>
+        <v>"TYA",</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="9"/>
+        <v>"STA",</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="9"/>
+        <v>"TXS",</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="9"/>
+        <v>"TAS",</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="9"/>
+        <v>"SHY",</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="9"/>
+        <v>"STA",</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="9"/>
+        <v>"SHX",</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="9"/>
+        <v>"AHX",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="str">
+        <f t="shared" ref="A28:P28" si="10">_xlfn.CONCAT(MID(A11,2,5),",")</f>
+        <v>"LDY",</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDX",</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LAX",</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDY",</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDX",</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LAX",</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="10"/>
+        <v>"TAY",</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="10"/>
+        <v>"TAX",</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LAX",</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDY",</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LDX",</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="10"/>
+        <v>"LAX",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="str">
+        <f t="shared" ref="A29:P29" si="11">_xlfn.CONCAT(MID(A12,2,5),",")</f>
+        <v>"BCS",</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="11"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LAX",</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDY",</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDX",</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LAX",</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="11"/>
+        <v>"CLV",</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="11"/>
+        <v>"TSX",</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LAS",</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDY",</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDA",</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LDX",</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="11"/>
+        <v>"LAX",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="str">
+        <f t="shared" ref="A30:P30" si="12">_xlfn.CONCAT(MID(A13,2,5),",")</f>
+        <v>"CPY",</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="12"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="12"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="12"/>
+        <v>"DCP",</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="12"/>
+        <v>"CPY",</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="12"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="12"/>
+        <v>"DEC",</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="12"/>
+        <v>"DCP",</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="12"/>
+        <v>"INY",</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="12"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="12"/>
+        <v>"DEX",</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="12"/>
+        <v>"AXS",</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="12"/>
+        <v>"CPY",</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="12"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="12"/>
+        <v>"DEC",</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="12"/>
+        <v>"DCP",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="str">
+        <f t="shared" ref="A31:P31" si="13">_xlfn.CONCAT(MID(A14,2,5),",")</f>
+        <v>"BNE",</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="13"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="13"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="13"/>
+        <v>"DCP",</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="13"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="13"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="13"/>
+        <v>"DEC",</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="13"/>
+        <v>"DCP",</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="13"/>
+        <v>"CLD",</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="13"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="13"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="13"/>
+        <v>"DCP",</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="13"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="13"/>
+        <v>"CMP",</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="13"/>
+        <v>"DEC",</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="13"/>
+        <v>"DCP",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:P32" si="14">_xlfn.CONCAT(MID(A15,2,5),",")</f>
+        <v>"CPX",</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="14"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="14"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="14"/>
+        <v>"ISC",</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="14"/>
+        <v>"CPX",</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="14"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="14"/>
+        <v>"INC",</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="14"/>
+        <v>"ISC",</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="14"/>
+        <v>"INX",</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="14"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="14"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="14"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="14"/>
+        <v>"CPX",</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="14"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="14"/>
+        <v>"INC",</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="14"/>
+        <v>"ISC",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:P33" si="15">_xlfn.CONCAT(MID(A16,2,5),",")</f>
+        <v>"BEQ",</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="15"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="15"/>
+        <v>"STP",</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="15"/>
+        <v>"ISC",</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="15"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="15"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="15"/>
+        <v>"INC",</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="15"/>
+        <v>"ISC",</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="15"/>
+        <v>"SED",</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="15"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="15"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="15"/>
+        <v>"ISC",</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="15"/>
+        <v>"NOP",</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="15"/>
+        <v>"SBC",</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="15"/>
+        <v>"INC",</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="15"/>
+        <v>"ISC",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="str">
+        <f t="shared" ref="A19:P79" si="16">MID(A55,3,3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="str">
+        <f t="shared" si="16"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -37289,7 +38515,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -38101,10 +39327,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67960844-2DE2-41F5-8C38-75815F21CA59}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -38909,13 +40135,1869 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:16">
       <c r="A19" t="str">
         <f>IF(ISBLANK(B20),"IMP",IF(B20=$B$22,"ABS",IF(B20=$B$28,"IMM",IF(B20=$B$27,"REL",IF(B20=$E$20,"IZX",IF(B20=$C$21,"IZY",IF(B20=$F$20,"ZP0",IF(B20=$F$21,"ZPX",IF(B20=$H$29,"ZPY",IF(B20=$K$21,"ABY",IF(B20=$N$21,"ABX",IF(B20=$N$26,"IND",999))))))))))))</f>
         <v>IMP</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="27" t="s">
         <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("&amp;CPU::",A1,",")</f>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ref="B22:P22" si="0">_xlfn.CONCAT("&amp;CPU::",B1,",")</f>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:P41" si="1">_xlfn.CONCAT("&amp;CPU::",A2,",")</f>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IND,</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPY,</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPY,</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPY,</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPY,</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZX,</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZP0,</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMM,</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABS,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::REL,</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IZY,</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ZPX,</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::IMP,</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABY,</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;CPU::ABX,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -38925,10 +42007,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679484F4-E6FC-4FE3-BB08-71DD8B0C9796}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -39750,7 +42832,1888 @@
         <v>984</v>
       </c>
     </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <f>IF(A18=1,_xlfn.CONCAT("Byte ",MID(A1,7,3),"(); "),0)</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:O35" si="0">IF(B18=1,_xlfn.CONCAT("Byte ",MID(B1,7,3),"(); "),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Byte SLO(); </v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Byte SLO(); </v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Byte ANC(); </v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <f t="shared" ref="A36:O49" si="1">IF(A19=1,_xlfn.CONCAT("Byte ",MID(A2,7,3),"(); "),0)</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SLO(); </v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SLO(); </v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SLO(); </v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RLA(); </v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RLA(); </v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte ANC(); </v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RLA(); </v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RLA(); </v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RLA(); </v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SRE(); </v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SRE(); </v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte ALR(); </v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SRE(); </v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SRE(); </v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SRE(); </v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RRA(); </v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RRA(); </v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte ARR(); </v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RRA(); </v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RRA(); </v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte RRA(); </v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SAX(); </v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SAX(); </v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte XAA(); </v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte AHX(); </v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SAX(); </v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte TAS(); </v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SHY(); </v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SHX(); </v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte LAX(); </v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte LAX(); </v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte LAX(); </v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte LAX(); </v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte LAX(); </v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte LAS(); </v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte DCP(); </v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte DCP(); </v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte AXS(); </v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte DCP(); </v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte DCP(); </v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte DCP(); </v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte ISC(); </v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte ISC(); </v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Byte SBC(); </v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <f>IF(A33=1,_xlfn.CONCAT("Byte ",MID(A16,7,3),"(); "),0)</f>
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:O50" si="2">IF(B33=1,_xlfn.CONCAT("Byte ",MID(B16,7,3),"(); "),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Byte STP(); </v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Byte ISC(); </v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Byte ISC(); </v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Byte ISC(); </v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Byte NOP(); </v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="B55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="B56" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="B57" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="B58" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="B60" t="s">
+        <v>1045</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:A127">
+    <sortCondition ref="A53:A127"/>
+  </sortState>
+  <conditionalFormatting sqref="E53:E54 E61:E73 A117:A125 A113 A83">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60 B55:E59">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/instruction_matrix_ref.xlsx
+++ b/instruction_matrix_ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haruk\Projects\nesEmu\myNESEmu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194FA44C-683A-4FC6-8638-0B2BA746CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95715038-A9F6-4831-9653-8E919F25CD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19770" windowHeight="13875" firstSheet="1" activeTab="8" xr2:uid="{EA7F8F21-DE70-47D7-820D-69DB24D0CDF7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19770" windowHeight="13875" firstSheet="1" activeTab="3" xr2:uid="{EA7F8F21-DE70-47D7-820D-69DB24D0CDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -3210,9 +3210,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3277,7 +3285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3350,6 +3358,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3412,92 +3438,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3508,17 +3458,109 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - 着色 6" xfId="3" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -13910,7 +13952,7 @@
       <c r="C1" t="s">
         <v>1012</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E1" t="s">
@@ -13960,7 +14002,7 @@
       <c r="C2" t="s">
         <v>1015</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E2" t="s">
@@ -14010,7 +14052,7 @@
       <c r="C3" t="s">
         <v>1012</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E3" t="s">
@@ -14060,7 +14102,7 @@
       <c r="C4" t="s">
         <v>1015</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E4" t="s">
@@ -14110,7 +14152,7 @@
       <c r="C5" t="s">
         <v>1012</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E5" t="s">
@@ -14160,7 +14202,7 @@
       <c r="C6" t="s">
         <v>1015</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E6" t="s">
@@ -14210,7 +14252,7 @@
       <c r="C7" t="s">
         <v>1012</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E7" t="s">
@@ -14260,7 +14302,7 @@
       <c r="C8" t="s">
         <v>1015</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E8" t="s">
@@ -14360,7 +14402,7 @@
       <c r="C10" t="s">
         <v>1012</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E10" t="s">
@@ -14460,7 +14502,7 @@
       <c r="C12" t="s">
         <v>1015</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E12" t="s">
@@ -14560,7 +14602,7 @@
       <c r="C14" t="s">
         <v>1015</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E14" t="s">
@@ -14660,7 +14702,7 @@
       <c r="C16" t="s">
         <v>1015</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>1018</v>
       </c>
       <c r="E16" t="s">
@@ -14704,7 +14746,7 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>0</v>
       </c>
       <c r="B18" t="str">
@@ -14773,7 +14815,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>1</v>
       </c>
       <c r="B19" t="str">
@@ -14842,7 +14884,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>2</v>
       </c>
       <c r="B20" t="str">
@@ -14911,7 +14953,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>3</v>
       </c>
       <c r="B21" t="str">
@@ -14980,7 +15022,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>4</v>
       </c>
       <c r="B22" t="str">
@@ -15049,7 +15091,7 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>5</v>
       </c>
       <c r="B23" t="str">
@@ -15118,7 +15160,7 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>6</v>
       </c>
       <c r="B24" t="str">
@@ -15187,7 +15229,7 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <v>7</v>
       </c>
       <c r="B25" t="str">
@@ -15256,7 +15298,7 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>8</v>
       </c>
       <c r="B26" t="str">
@@ -15325,7 +15367,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <v>9</v>
       </c>
       <c r="B27" t="str">
@@ -15394,7 +15436,7 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <v>10</v>
       </c>
       <c r="B28" t="str">
@@ -15463,7 +15505,7 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="28">
+      <c r="A29" s="26">
         <v>11</v>
       </c>
       <c r="B29" t="str">
@@ -15532,7 +15574,7 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="28">
+      <c r="A30" s="26">
         <v>12</v>
       </c>
       <c r="B30" t="str">
@@ -15601,7 +15643,7 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="28">
+      <c r="A31" s="26">
         <v>13</v>
       </c>
       <c r="B31" t="str">
@@ -15670,7 +15712,7 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <v>14</v>
       </c>
       <c r="B32" t="str">
@@ -15739,7 +15781,7 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="28">
+      <c r="A33" s="26">
         <v>15</v>
       </c>
       <c r="B33" t="str">
@@ -15808,7 +15850,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31286,36 +31328,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A133FC-125B-4C56-8D9C-BE5EF4DD6DEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="14" max="14" width="9.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.4" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="37" t="s">
         <v>700</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="37" t="s">
         <v>762</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="38" t="s">
         <v>701</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -31338,7 +31383,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="32.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>710</v>
@@ -31362,10 +31407,10 @@
       <c r="J2" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="30" t="s">
         <v>733</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -31374,7 +31419,7 @@
       <c r="N2" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="30" t="s">
         <v>740</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -31385,7 +31430,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>711</v>
       </c>
@@ -31408,15 +31454,15 @@
       <c r="J3" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>735</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="O3" s="33"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="3" t="s">
         <v>742</v>
       </c>
@@ -31425,209 +31471,210 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="30"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>706</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="4"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="O4" s="33"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="1:17" ht="32.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="4"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="34"/>
       <c r="N5" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="30"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="30"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="30"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="30"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" ht="21.4" thickBot="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17" ht="21.4" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="5" t="s">
         <v>749</v>
       </c>
     </row>
@@ -31635,16 +31682,16 @@
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>745</v>
       </c>
       <c r="F12" s="1"/>
@@ -31664,28 +31711,28 @@
       <c r="A13" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>750</v>
       </c>
       <c r="J13" s="1"/>
@@ -31701,28 +31748,28 @@
       <c r="A14" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9" t="s">
         <v>751</v>
       </c>
       <c r="J14" s="1"/>
@@ -31738,28 +31785,28 @@
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>746</v>
       </c>
       <c r="J15" s="1"/>
@@ -31775,28 +31822,28 @@
       <c r="A16" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>751</v>
       </c>
       <c r="J16" s="1"/>
@@ -31816,26 +31863,26 @@
       <c r="A17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>756</v>
       </c>
       <c r="J17" s="1"/>
@@ -31851,22 +31898,22 @@
       <c r="A18" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -31882,22 +31929,22 @@
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -31913,22 +31960,22 @@
       <c r="A20" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -31963,7 +32010,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="32.65" thickBot="1">
+    <row r="22" spans="1:17" ht="21.4" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>238</v>
       </c>
@@ -32059,855 +32106,855 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="17">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="19" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="19" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="19" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="19" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>780</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="19" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="16" t="s">
         <v>783</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="19" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="19" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="16" t="s">
         <v>790</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="17" t="s">
         <v>784</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="19" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>793</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="21" t="s">
         <v>793</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="19" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>793</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="19" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>808</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="16" t="s">
         <v>809</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>812</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>812</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="21" t="s">
         <v>817</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="16" t="s">
         <v>812</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="19" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>819</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="16" t="s">
         <v>820</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="19" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>821</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>821</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="16" t="s">
         <v>821</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="19" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>825</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="19" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>0</v>
       </c>
       <c r="C20" t="s">
@@ -32948,7 +32995,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -32992,7 +33039,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="26">
+      <c r="A22" s="24">
         <v>2</v>
       </c>
       <c r="B22" t="s">
@@ -33036,7 +33083,7 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
@@ -33080,7 +33127,7 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>4</v>
       </c>
       <c r="C24" t="s">
@@ -33121,7 +33168,7 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="26">
+      <c r="A25" s="24">
         <v>5</v>
       </c>
       <c r="B25" t="s">
@@ -33165,7 +33212,7 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -33206,7 +33253,7 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>7</v>
       </c>
       <c r="B27" t="s">
@@ -33250,7 +33297,7 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="26">
+      <c r="A28" s="24">
         <v>8</v>
       </c>
       <c r="B28" t="s">
@@ -33297,7 +33344,7 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>9</v>
       </c>
       <c r="B29" t="s">
@@ -33341,7 +33388,7 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>10</v>
       </c>
       <c r="B30" t="s">
@@ -33388,7 +33435,7 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="26">
+      <c r="A31" s="24">
         <v>11</v>
       </c>
       <c r="B31" t="s">
@@ -33432,7 +33479,7 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>12</v>
       </c>
       <c r="B32" t="s">
@@ -33479,7 +33526,7 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="25">
+      <c r="A33" s="23">
         <v>13</v>
       </c>
       <c r="B33" t="s">
@@ -33523,7 +33570,7 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="26">
+      <c r="A34" s="24">
         <v>14</v>
       </c>
       <c r="B34" t="s">
@@ -33570,7 +33617,7 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>15</v>
       </c>
       <c r="B35" t="s">
@@ -38459,7 +38506,7 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="str">
-        <f t="shared" ref="A19:P79" si="16">MID(A55,3,3)</f>
+        <f t="shared" ref="A72:A79" si="16">MID(A55,3,3)</f>
         <v/>
       </c>
     </row>
@@ -40140,7 +40187,7 @@
         <f>IF(ISBLANK(B20),"IMP",IF(B20=$B$22,"ABS",IF(B20=$B$28,"IMM",IF(B20=$B$27,"REL",IF(B20=$E$20,"IZX",IF(B20=$C$21,"IZY",IF(B20=$F$20,"ZP0",IF(B20=$F$21,"ZPX",IF(B20=$H$29,"ZPY",IF(B20=$K$21,"ABY",IF(B20=$N$21,"ABX",IF(B20=$N$26,"IND",999))))))))))))</f>
         <v>IMP</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>913</v>
       </c>
     </row>
@@ -40212,7 +40259,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="str">
-        <f t="shared" ref="A23:P41" si="1">_xlfn.CONCAT("&amp;CPU::",A2,",")</f>
+        <f t="shared" ref="A23:P37" si="1">_xlfn.CONCAT("&amp;CPU::",A2,",")</f>
         <v>&amp;CPU::REL,</v>
       </c>
       <c r="B23" t="str">
@@ -42009,7 +42056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679484F4-E6FC-4FE3-BB08-71DD8B0C9796}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B55" sqref="B55:E60"/>
     </sheetView>
   </sheetViews>
